--- a/bots/crawl_ch/output/bread_coop_2022-12-29.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-29.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" t="n">
         <v>4.5</v>
@@ -1796,7 +1796,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" t="n">
         <v>4.5</v>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6924,7 +6924,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7427,7 +7427,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7638,7 +7638,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8774,7 +8774,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9062,7 +9062,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9626,7 +9626,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9841,7 +9841,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10052,7 +10052,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10332,7 +10332,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10831,7 +10831,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11679,7 +11679,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12462,7 +12462,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12604,7 +12604,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12673,7 +12673,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12742,7 +12742,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13160,7 +13160,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13590,7 +13590,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13805,7 +13805,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13878,7 +13878,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14020,7 +14020,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14089,7 +14089,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14158,7 +14158,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14515,7 +14515,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14584,7 +14584,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14726,7 +14726,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14872,7 +14872,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15250,7 +15250,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E209" t="n">
         <v>4.5</v>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15371,7 +15371,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15440,7 +15440,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15582,7 +15582,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15655,7 +15655,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15724,7 +15724,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15866,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -15939,7 +15939,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16085,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16227,7 +16227,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16296,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16438,7 +16438,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16507,7 +16507,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16576,7 +16576,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16860,7 +16860,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17282,7 +17282,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17349,7 +17349,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17418,7 +17418,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17487,7 +17487,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17702,7 +17702,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17917,7 +17917,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -17986,7 +17986,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18124,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18268,7 +18268,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18337,7 +18337,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18406,7 +18406,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18761,7 +18761,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18830,7 +18830,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -18968,7 +18968,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19037,7 +19037,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19110,7 +19110,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19179,7 +19179,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19248,7 +19248,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19315,7 +19315,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19388,7 +19388,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19457,7 +19457,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19526,7 +19526,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19595,7 +19595,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19664,7 +19664,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19737,7 +19737,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19810,7 +19810,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19956,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20029,7 +20029,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20098,7 +20098,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20167,7 +20167,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20234,7 +20234,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20307,7 +20307,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20380,7 +20380,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20449,7 +20449,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20518,7 +20518,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20587,7 +20587,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21021,7 +21021,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21163,7 +21163,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21305,7 +21305,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21447,7 +21447,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21873,7 +21873,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22084,7 +22084,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22502,7 +22502,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22571,7 +22571,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22640,7 +22640,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22855,7 +22855,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22924,7 +22924,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -22993,7 +22993,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23062,7 +23062,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23131,7 +23131,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23200,7 +23200,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23484,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23557,7 +23557,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23768,7 +23768,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23910,7 +23910,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -23979,7 +23979,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24048,7 +24048,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24121,7 +24121,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24190,7 +24190,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24259,7 +24259,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24328,7 +24328,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24397,7 +24397,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24466,7 +24466,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24535,7 +24535,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24604,7 +24604,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24677,7 +24677,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24746,7 +24746,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24815,7 +24815,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24882,7 +24882,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -24951,7 +24951,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25020,7 +25020,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25089,7 +25089,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25156,7 +25156,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25298,7 +25298,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25367,7 +25367,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25436,7 +25436,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25505,7 +25505,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25574,7 +25574,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25643,7 +25643,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25712,7 +25712,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25779,7 +25779,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25848,7 +25848,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25921,7 +25921,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -25990,7 +25990,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26063,7 +26063,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26136,7 +26136,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26207,7 +26207,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26276,7 +26276,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26349,7 +26349,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26418,7 +26418,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26560,7 +26560,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26633,7 +26633,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26706,7 +26706,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26777,7 +26777,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26850,7 +26850,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26923,7 +26923,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -26990,7 +26990,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27059,7 +27059,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27130,7 +27130,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27203,7 +27203,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27343,7 +27343,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27412,7 +27412,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27483,7 +27483,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27552,7 +27552,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27625,7 +27625,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27694,7 +27694,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27761,7 +27761,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27830,7 +27830,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27903,7 +27903,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -27972,7 +27972,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -28041,7 +28041,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -28114,7 +28114,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -28183,7 +28183,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -28250,7 +28250,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -28317,7 +28317,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -28384,7 +28384,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -28453,7 +28453,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -28522,7 +28522,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
@@ -28591,7 +28591,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-29 06:49:27</t>
+          <t>2022-12-29 12:55:52</t>
         </is>
       </c>
     </row>
